--- a/development/L1Menu_Collisions2023_v1_2_0/PrescaleTable/L1Menu_Collisions2023_v1_2_0_temp.xlsx
+++ b/development/L1Menu_Collisions2023_v1_2_0/PrescaleTable/L1Menu_Collisions2023_v1_2_0_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2023_v1_2_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3FE1C0-5C36-4742-B79F-80913D50128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5008497-D4D0-8A45-AC05-DDCAD181A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="28580" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <si>
     <t>Emergency</t>
   </si>
@@ -464,10 +464,10 @@
     <t>L1_SingleIsoEG24er2p1</t>
   </si>
   <si>
-    <t>L1_SingleIsoEG26er2p1</t>
+    <t>L1_SingleIsoEG26er2p5</t>
   </si>
   <si>
-    <t>L1_SingleIsoEG26er1p5</t>
+    <t>L1_SingleIsoEG26er2p1</t>
   </si>
   <si>
     <t>L1_SingleIsoEG28_FWD2p5</t>
@@ -1324,6 +1324,21 @@
   <si>
     <t>L1_DoubleJet_110_35_DoubleJet35_Mass_Min800</t>
   </si>
+  <si>
+    <t>L1_DoubleJet_65_35_DoubleJet35_Mass_Min500_DoubleJetCentral50</t>
+  </si>
+  <si>
+    <t>L1_DoubleJet40_Mass_Min450_LooseIsoEG15er2p1_RmOvlp_dR0p2</t>
+  </si>
+  <si>
+    <t>L1_DoubleJet45_Mass_Min450_LooseIsoEG20er2p1_RmOvlp_dR0p2</t>
+  </si>
+  <si>
+    <t>L1_DoubleJet_85_35_DoubleJet35_Mass_Min500_Mu3OQ</t>
+  </si>
+  <si>
+    <t>L1_DoubleJet_70_35_DoubleJet35_Mass_Min400_ETMHF65</t>
+  </si>
 </sst>
 </file>
 
@@ -1726,13 +1741,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AD1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D296" sqref="D296"/>
+      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14033,7 +14048,7 @@
     </row>
     <row r="167" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>143</v>
@@ -14107,7 +14122,7 @@
     </row>
     <row r="168" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>144</v>
@@ -24765,71 +24780,71 @@
       <c r="A312" s="4">
         <v>369</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>421</v>
+      <c r="B312" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="C312" s="5">
         <v>0</v>
       </c>
       <c r="D312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W312" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X312" s="5">
         <v>0</v>
@@ -24840,7 +24855,7 @@
         <v>370</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C313" s="5">
         <v>0</v>
@@ -24913,71 +24928,71 @@
       <c r="A314" s="4">
         <v>371</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>423</v>
+      <c r="B314" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="C314" s="5">
         <v>0</v>
       </c>
       <c r="D314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W314" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X314" s="5">
         <v>0</v>
@@ -24987,74 +25002,74 @@
       <c r="A315" s="4">
         <v>372</v>
       </c>
-      <c r="B315" s="4" t="s">
-        <v>277</v>
+      <c r="B315" s="14" t="s">
+        <v>432</v>
       </c>
       <c r="C315" s="5">
         <v>0</v>
       </c>
       <c r="D315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X315" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -25062,7 +25077,7 @@
         <v>373</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
       <c r="C316" s="5">
         <v>0</v>
@@ -25128,89 +25143,89 @@
         <v>1</v>
       </c>
       <c r="X316" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="4">
         <v>374</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>279</v>
+      <c r="B317" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="C317" s="5">
         <v>0</v>
       </c>
       <c r="D317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X317" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="C318" s="5">
         <v>0</v>
@@ -25276,15 +25291,15 @@
         <v>1</v>
       </c>
       <c r="X318" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4">
-        <v>382</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>281</v>
+        <v>376</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="C319" s="5">
         <v>0</v>
@@ -25358,72 +25373,72 @@
         <v>383</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C320" s="5">
         <v>0</v>
       </c>
-      <c r="D320" s="9">
-        <v>1</v>
-      </c>
-      <c r="E320" s="9">
-        <v>1</v>
-      </c>
-      <c r="F320" s="9">
-        <v>1</v>
-      </c>
-      <c r="G320" s="9">
-        <v>1</v>
-      </c>
-      <c r="H320" s="9">
-        <v>1</v>
-      </c>
-      <c r="I320" s="9">
-        <v>1</v>
-      </c>
-      <c r="J320" s="9">
-        <v>1</v>
-      </c>
-      <c r="K320" s="9">
-        <v>1</v>
-      </c>
-      <c r="L320" s="9">
-        <v>1</v>
-      </c>
-      <c r="M320" s="9">
-        <v>1</v>
-      </c>
-      <c r="N320" s="9">
-        <v>1</v>
-      </c>
-      <c r="O320" s="9">
-        <v>1</v>
-      </c>
-      <c r="P320" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q320" s="9">
-        <v>1</v>
-      </c>
-      <c r="R320" s="9">
-        <v>1</v>
-      </c>
-      <c r="S320" s="9">
-        <v>1</v>
-      </c>
-      <c r="T320" s="9">
-        <v>1</v>
-      </c>
-      <c r="U320" s="9">
-        <v>1</v>
-      </c>
-      <c r="V320" s="9">
-        <v>1</v>
-      </c>
-      <c r="W320" s="9">
-        <v>1</v>
-      </c>
-      <c r="X320" s="9">
+      <c r="D320" s="5">
+        <v>1</v>
+      </c>
+      <c r="E320" s="5">
+        <v>1</v>
+      </c>
+      <c r="F320" s="5">
+        <v>1</v>
+      </c>
+      <c r="G320" s="5">
+        <v>1</v>
+      </c>
+      <c r="H320" s="5">
+        <v>1</v>
+      </c>
+      <c r="I320" s="5">
+        <v>1</v>
+      </c>
+      <c r="J320" s="5">
+        <v>1</v>
+      </c>
+      <c r="K320" s="5">
+        <v>1</v>
+      </c>
+      <c r="L320" s="5">
+        <v>1</v>
+      </c>
+      <c r="M320" s="5">
+        <v>1</v>
+      </c>
+      <c r="N320" s="5">
+        <v>1</v>
+      </c>
+      <c r="O320" s="5">
+        <v>1</v>
+      </c>
+      <c r="P320" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="5">
+        <v>1</v>
+      </c>
+      <c r="R320" s="5">
+        <v>1</v>
+      </c>
+      <c r="S320" s="5">
+        <v>1</v>
+      </c>
+      <c r="T320" s="5">
+        <v>1</v>
+      </c>
+      <c r="U320" s="5">
+        <v>1</v>
+      </c>
+      <c r="V320" s="5">
+        <v>1</v>
+      </c>
+      <c r="W320" s="5">
+        <v>1</v>
+      </c>
+      <c r="X320" s="5">
         <v>1</v>
       </c>
     </row>
@@ -25432,73 +25447,73 @@
         <v>384</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C321" s="5">
         <v>0</v>
       </c>
       <c r="D321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="X321" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -25506,73 +25521,73 @@
         <v>385</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C322" s="5">
         <v>0</v>
       </c>
       <c r="D322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="O322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="T322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="U322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="V322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="W322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="X322" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -25580,747 +25595,747 @@
         <v>386</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C323" s="5">
         <v>0</v>
       </c>
-      <c r="D323" s="9">
-        <v>1</v>
-      </c>
-      <c r="E323" s="9">
-        <v>1</v>
-      </c>
-      <c r="F323" s="9">
-        <v>1</v>
-      </c>
-      <c r="G323" s="9">
-        <v>1</v>
-      </c>
-      <c r="H323" s="9">
-        <v>1</v>
-      </c>
-      <c r="I323" s="9">
-        <v>1</v>
-      </c>
-      <c r="J323" s="9">
-        <v>1</v>
-      </c>
-      <c r="K323" s="9">
-        <v>1</v>
-      </c>
-      <c r="L323" s="9">
-        <v>1</v>
-      </c>
-      <c r="M323" s="9">
-        <v>1</v>
-      </c>
-      <c r="N323" s="9">
-        <v>1</v>
-      </c>
-      <c r="O323" s="9">
-        <v>1</v>
-      </c>
-      <c r="P323" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q323" s="9">
-        <v>1</v>
-      </c>
-      <c r="R323" s="9">
-        <v>1</v>
-      </c>
-      <c r="S323" s="9">
-        <v>1</v>
-      </c>
-      <c r="T323" s="9">
-        <v>1</v>
-      </c>
-      <c r="U323" s="9">
-        <v>1</v>
-      </c>
-      <c r="V323" s="9">
-        <v>1</v>
-      </c>
-      <c r="W323" s="9">
-        <v>1</v>
-      </c>
-      <c r="X323" s="9">
+      <c r="D323" s="5">
+        <v>1</v>
+      </c>
+      <c r="E323" s="5">
+        <v>1</v>
+      </c>
+      <c r="F323" s="5">
+        <v>1</v>
+      </c>
+      <c r="G323" s="5">
+        <v>1</v>
+      </c>
+      <c r="H323" s="5">
+        <v>1</v>
+      </c>
+      <c r="I323" s="5">
+        <v>1</v>
+      </c>
+      <c r="J323" s="5">
+        <v>1</v>
+      </c>
+      <c r="K323" s="5">
+        <v>1</v>
+      </c>
+      <c r="L323" s="5">
+        <v>1</v>
+      </c>
+      <c r="M323" s="5">
+        <v>1</v>
+      </c>
+      <c r="N323" s="5">
+        <v>1</v>
+      </c>
+      <c r="O323" s="5">
+        <v>1</v>
+      </c>
+      <c r="P323" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q323" s="5">
+        <v>1</v>
+      </c>
+      <c r="R323" s="5">
+        <v>1</v>
+      </c>
+      <c r="S323" s="5">
+        <v>1</v>
+      </c>
+      <c r="T323" s="5">
+        <v>1</v>
+      </c>
+      <c r="U323" s="5">
+        <v>1</v>
+      </c>
+      <c r="V323" s="5">
+        <v>1</v>
+      </c>
+      <c r="W323" s="5">
+        <v>1</v>
+      </c>
+      <c r="X323" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C324" s="5">
         <v>0</v>
       </c>
       <c r="D324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X324" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C325" s="5">
         <v>0</v>
       </c>
-      <c r="D325" s="5">
-        <v>1</v>
-      </c>
-      <c r="E325" s="5">
-        <v>0</v>
-      </c>
-      <c r="F325" s="5">
-        <v>0</v>
-      </c>
-      <c r="G325" s="5">
-        <v>1</v>
-      </c>
-      <c r="H325" s="5">
-        <v>1</v>
-      </c>
-      <c r="I325" s="5">
-        <v>1</v>
-      </c>
-      <c r="J325" s="5">
-        <v>1</v>
-      </c>
-      <c r="K325" s="5">
-        <v>1</v>
-      </c>
-      <c r="L325" s="5">
-        <v>1</v>
-      </c>
-      <c r="M325" s="5">
-        <v>1</v>
-      </c>
-      <c r="N325" s="5">
-        <v>1</v>
-      </c>
-      <c r="O325" s="5">
-        <v>1</v>
-      </c>
-      <c r="P325" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q325" s="5">
-        <v>1</v>
-      </c>
-      <c r="R325" s="5">
-        <v>1</v>
-      </c>
-      <c r="S325" s="5">
-        <v>1</v>
-      </c>
-      <c r="T325" s="5">
-        <v>1</v>
-      </c>
-      <c r="U325" s="5">
-        <v>1</v>
-      </c>
-      <c r="V325" s="5">
-        <v>1</v>
-      </c>
-      <c r="W325" s="5">
-        <v>1</v>
-      </c>
-      <c r="X325" s="5">
+      <c r="D325" s="9">
+        <v>1</v>
+      </c>
+      <c r="E325" s="9">
+        <v>1</v>
+      </c>
+      <c r="F325" s="9">
+        <v>1</v>
+      </c>
+      <c r="G325" s="9">
+        <v>1</v>
+      </c>
+      <c r="H325" s="9">
+        <v>1</v>
+      </c>
+      <c r="I325" s="9">
+        <v>1</v>
+      </c>
+      <c r="J325" s="9">
+        <v>1</v>
+      </c>
+      <c r="K325" s="9">
+        <v>1</v>
+      </c>
+      <c r="L325" s="9">
+        <v>1</v>
+      </c>
+      <c r="M325" s="9">
+        <v>1</v>
+      </c>
+      <c r="N325" s="9">
+        <v>1</v>
+      </c>
+      <c r="O325" s="9">
+        <v>1</v>
+      </c>
+      <c r="P325" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q325" s="9">
+        <v>1</v>
+      </c>
+      <c r="R325" s="9">
+        <v>1</v>
+      </c>
+      <c r="S325" s="9">
+        <v>1</v>
+      </c>
+      <c r="T325" s="9">
+        <v>1</v>
+      </c>
+      <c r="U325" s="9">
+        <v>1</v>
+      </c>
+      <c r="V325" s="9">
+        <v>1</v>
+      </c>
+      <c r="W325" s="9">
+        <v>1</v>
+      </c>
+      <c r="X325" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C326" s="5">
         <v>0</v>
       </c>
       <c r="D326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="U326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="W326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X326" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="4">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C327" s="5">
         <v>0</v>
       </c>
       <c r="D327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="O327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="P327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="S327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="T327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="U327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="W327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="X327" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C328" s="5">
         <v>0</v>
       </c>
-      <c r="D328" s="5">
-        <v>1</v>
-      </c>
-      <c r="E328" s="5">
-        <v>1</v>
-      </c>
-      <c r="F328" s="5">
-        <v>1</v>
-      </c>
-      <c r="G328" s="5">
-        <v>1</v>
-      </c>
-      <c r="H328" s="5">
-        <v>1</v>
-      </c>
-      <c r="I328" s="5">
-        <v>1</v>
-      </c>
-      <c r="J328" s="5">
-        <v>1</v>
-      </c>
-      <c r="K328" s="5">
-        <v>1</v>
-      </c>
-      <c r="L328" s="5">
-        <v>1</v>
-      </c>
-      <c r="M328" s="5">
-        <v>1</v>
-      </c>
-      <c r="N328" s="5">
-        <v>1</v>
-      </c>
-      <c r="O328" s="5">
-        <v>1</v>
-      </c>
-      <c r="P328" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="5">
-        <v>1</v>
-      </c>
-      <c r="R328" s="5">
-        <v>1</v>
-      </c>
-      <c r="S328" s="5">
-        <v>1</v>
-      </c>
-      <c r="T328" s="5">
-        <v>1</v>
-      </c>
-      <c r="U328" s="5">
-        <v>1</v>
-      </c>
-      <c r="V328" s="5">
-        <v>1</v>
-      </c>
-      <c r="W328" s="5">
-        <v>1</v>
-      </c>
-      <c r="X328" s="5">
+      <c r="D328" s="9">
+        <v>1</v>
+      </c>
+      <c r="E328" s="9">
+        <v>1</v>
+      </c>
+      <c r="F328" s="9">
+        <v>1</v>
+      </c>
+      <c r="G328" s="9">
+        <v>1</v>
+      </c>
+      <c r="H328" s="9">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9">
+        <v>1</v>
+      </c>
+      <c r="J328" s="9">
+        <v>1</v>
+      </c>
+      <c r="K328" s="9">
+        <v>1</v>
+      </c>
+      <c r="L328" s="9">
+        <v>1</v>
+      </c>
+      <c r="M328" s="9">
+        <v>1</v>
+      </c>
+      <c r="N328" s="9">
+        <v>1</v>
+      </c>
+      <c r="O328" s="9">
+        <v>1</v>
+      </c>
+      <c r="P328" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q328" s="9">
+        <v>1</v>
+      </c>
+      <c r="R328" s="9">
+        <v>1</v>
+      </c>
+      <c r="S328" s="9">
+        <v>1</v>
+      </c>
+      <c r="T328" s="9">
+        <v>1</v>
+      </c>
+      <c r="U328" s="9">
+        <v>1</v>
+      </c>
+      <c r="V328" s="9">
+        <v>1</v>
+      </c>
+      <c r="W328" s="9">
+        <v>1</v>
+      </c>
+      <c r="X328" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="4">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C329" s="5">
         <v>0</v>
       </c>
       <c r="D329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="E329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="F329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="G329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="H329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="I329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="J329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="K329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="L329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="M329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="N329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="O329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="P329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="Q329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="R329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="S329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="T329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="U329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="V329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="W329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
       <c r="X329" s="5">
-        <v>11400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C330" s="5">
         <v>0</v>
       </c>
       <c r="D330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="E330" s="5">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="F330" s="5">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="G330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="H330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="I330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="J330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="K330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="L330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="N330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="O330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="P330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="Q330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="R330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="S330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="T330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="U330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="V330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="W330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="X330" s="5">
-        <v>4100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="4">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C331" s="5">
         <v>0</v>
       </c>
       <c r="D331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="E331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="F331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="G331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="H331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="I331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="J331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="K331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="L331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="M331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="N331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="O331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="P331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="Q331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="R331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="S331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="T331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="U331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="V331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="W331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="X331" s="5">
-        <v>1600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="4">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C332" s="5">
         <v>0</v>
       </c>
       <c r="D332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="H332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="I332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="L332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="N332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="O332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="P332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="Q332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="R332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="S332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="T332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="U332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="V332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="W332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="X332" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C333" s="5">
         <v>0</v>
@@ -26329,10 +26344,10 @@
         <v>1</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
         <v>1</v>
@@ -26391,312 +26406,312 @@
     </row>
     <row r="334" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C334" s="5">
         <v>0</v>
       </c>
       <c r="D334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="E334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="F334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="G334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="H334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="I334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="J334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="K334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="L334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="M334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="N334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="O334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="P334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="Q334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="R334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="S334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="T334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="U334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="V334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="W334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
       <c r="X334" s="5">
-        <v>1</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="335" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C335" s="5">
         <v>0</v>
       </c>
       <c r="D335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="H335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="I335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="J335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="K335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="L335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="M335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="N335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="O335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="P335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="Q335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="R335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="S335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="T335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="U335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="V335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="W335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="X335" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="336" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C336" s="5">
         <v>0</v>
       </c>
       <c r="D336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="E336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="F336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="G336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="H336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="I336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="J336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="K336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="L336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="M336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="N336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="O336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="P336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="Q336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="R336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="S336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="T336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="U336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="V336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="W336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="X336" s="5">
-        <v>1</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="337" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C337" s="5">
         <v>0</v>
       </c>
       <c r="D337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="K337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="L337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="M337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="N337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="O337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="P337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="Q337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="R337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="S337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="U337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="V337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="W337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="X337" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="4">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C338" s="5">
         <v>0</v>
       </c>
       <c r="D338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" s="5">
         <v>0</v>
@@ -26705,66 +26720,66 @@
         <v>0</v>
       </c>
       <c r="G338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C339" s="5">
         <v>0</v>
@@ -26833,234 +26848,234 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="4">
-        <v>413</v>
-      </c>
-      <c r="B340" s="13" t="s">
-        <v>424</v>
+        <v>408</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C340" s="5">
         <v>0</v>
       </c>
       <c r="D340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X340" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4">
-        <v>414</v>
-      </c>
-      <c r="B341" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C341" s="5">
         <v>0</v>
       </c>
       <c r="D341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W341" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X341" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4">
-        <v>415</v>
-      </c>
-      <c r="B342" s="13" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C342" s="5">
         <v>0</v>
       </c>
       <c r="D342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X342" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C343" s="5">
         <v>0</v>
@@ -27131,10 +27146,10 @@
     </row>
     <row r="344" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C344" s="5">
         <v>0</v>
@@ -27203,12 +27218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="4">
-        <v>418</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>304</v>
+        <v>413</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="C345" s="5">
         <v>0</v>
@@ -27277,12 +27292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="4">
-        <v>419</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>305</v>
+        <v>414</v>
+      </c>
+      <c r="B346" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="C346" s="5">
         <v>0</v>
@@ -27351,160 +27366,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="4">
-        <v>420</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>306</v>
+        <v>415</v>
+      </c>
+      <c r="B347" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="C347" s="5">
         <v>0</v>
       </c>
       <c r="D347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W347" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X347" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="4">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C348" s="5">
         <v>0</v>
       </c>
       <c r="D348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X348" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="4">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C349" s="5">
         <v>0</v>
@@ -27575,158 +27590,158 @@
     </row>
     <row r="350" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C350" s="5">
         <v>0</v>
       </c>
       <c r="D350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X350" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C351" s="5">
         <v>0</v>
       </c>
       <c r="D351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X351" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C352" s="5">
         <v>0</v>
@@ -27797,10 +27812,10 @@
     </row>
     <row r="353" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="4">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C353" s="5">
         <v>0</v>
@@ -27871,158 +27886,158 @@
     </row>
     <row r="354" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="4">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C354" s="5">
         <v>0</v>
       </c>
       <c r="D354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X354" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="4">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C355" s="5">
         <v>0</v>
       </c>
       <c r="D355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X355" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="4">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C356" s="5">
         <v>0</v>
@@ -28093,10 +28108,10 @@
     </row>
     <row r="357" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C357" s="5">
         <v>0</v>
@@ -28167,10 +28182,10 @@
     </row>
     <row r="358" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C358" s="5">
         <v>0</v>
@@ -28241,232 +28256,232 @@
     </row>
     <row r="359" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C359" s="5">
         <v>0</v>
       </c>
       <c r="D359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C360" s="5">
         <v>0</v>
       </c>
       <c r="D360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C361" s="5">
         <v>0</v>
       </c>
       <c r="D361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="H361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="I361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="J361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="N361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="O361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="P361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="R361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="S361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="U361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="V361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="W361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="X361" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="4">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C362" s="5">
         <v>0</v>
@@ -28537,10 +28552,10 @@
     </row>
     <row r="363" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="4">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C363" s="5">
         <v>0</v>
@@ -28611,232 +28626,232 @@
     </row>
     <row r="364" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="4">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C364" s="5">
         <v>0</v>
       </c>
       <c r="D364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="X364" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="4">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C365" s="5">
         <v>0</v>
       </c>
       <c r="D365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X365" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C366" s="5">
         <v>0</v>
       </c>
       <c r="D366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="H366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="J366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="K366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="L366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="M366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="O366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="P366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="Q366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="S366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="T366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="V366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="W366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="X366" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="367" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C367" s="5">
         <v>0</v>
@@ -28907,380 +28922,380 @@
     </row>
     <row r="368" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="4">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C368" s="5">
         <v>0</v>
       </c>
       <c r="D368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X368" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="D369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="E369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="F369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="G369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="H369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="I369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="J369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="K369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="L369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="M369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="N369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="O369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="P369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="Q369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="R369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="S369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="T369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="U369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="V369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="W369" s="9">
-        <v>17581</v>
-      </c>
-      <c r="X369" s="9">
-        <v>17581</v>
+        <v>323</v>
+      </c>
+      <c r="C369" s="5">
+        <v>0</v>
+      </c>
+      <c r="D369" s="5">
+        <v>100</v>
+      </c>
+      <c r="E369" s="5">
+        <v>100</v>
+      </c>
+      <c r="F369" s="5">
+        <v>100</v>
+      </c>
+      <c r="G369" s="5">
+        <v>100</v>
+      </c>
+      <c r="H369" s="5">
+        <v>100</v>
+      </c>
+      <c r="I369" s="5">
+        <v>100</v>
+      </c>
+      <c r="J369" s="5">
+        <v>100</v>
+      </c>
+      <c r="K369" s="5">
+        <v>100</v>
+      </c>
+      <c r="L369" s="5">
+        <v>100</v>
+      </c>
+      <c r="M369" s="5">
+        <v>100</v>
+      </c>
+      <c r="N369" s="5">
+        <v>100</v>
+      </c>
+      <c r="O369" s="5">
+        <v>100</v>
+      </c>
+      <c r="P369" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q369" s="5">
+        <v>100</v>
+      </c>
+      <c r="R369" s="5">
+        <v>100</v>
+      </c>
+      <c r="S369" s="5">
+        <v>100</v>
+      </c>
+      <c r="T369" s="5">
+        <v>100</v>
+      </c>
+      <c r="U369" s="5">
+        <v>100</v>
+      </c>
+      <c r="V369" s="5">
+        <v>100</v>
+      </c>
+      <c r="W369" s="5">
+        <v>100</v>
+      </c>
+      <c r="X369" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C370" s="10">
-        <v>0</v>
-      </c>
-      <c r="D370" s="9">
-        <v>17581</v>
-      </c>
-      <c r="E370" s="10">
-        <v>0</v>
-      </c>
-      <c r="F370" s="10">
-        <v>0</v>
-      </c>
-      <c r="G370" s="10">
-        <v>0</v>
-      </c>
-      <c r="H370" s="10">
-        <v>0</v>
-      </c>
-      <c r="I370" s="9">
-        <v>17581</v>
-      </c>
-      <c r="J370" s="10">
-        <v>0</v>
-      </c>
-      <c r="K370" s="10">
-        <v>0</v>
-      </c>
-      <c r="L370" s="10">
-        <v>0</v>
-      </c>
-      <c r="M370" s="10">
-        <v>0</v>
-      </c>
-      <c r="N370" s="10">
-        <v>0</v>
-      </c>
-      <c r="O370" s="10">
-        <v>0</v>
-      </c>
-      <c r="P370" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q370" s="10">
-        <v>0</v>
-      </c>
-      <c r="R370" s="10">
-        <v>0</v>
-      </c>
-      <c r="S370" s="10">
-        <v>0</v>
-      </c>
-      <c r="T370" s="10">
-        <v>0</v>
-      </c>
-      <c r="U370" s="10">
-        <v>0</v>
-      </c>
-      <c r="V370" s="10">
-        <v>0</v>
-      </c>
-      <c r="W370" s="10">
-        <v>0</v>
-      </c>
-      <c r="X370" s="10">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="C370" s="5">
+        <v>0</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20</v>
+      </c>
+      <c r="E370" s="5">
+        <v>20</v>
+      </c>
+      <c r="F370" s="5">
+        <v>20</v>
+      </c>
+      <c r="G370" s="5">
+        <v>20</v>
+      </c>
+      <c r="H370" s="5">
+        <v>20</v>
+      </c>
+      <c r="I370" s="5">
+        <v>20</v>
+      </c>
+      <c r="J370" s="5">
+        <v>20</v>
+      </c>
+      <c r="K370" s="5">
+        <v>20</v>
+      </c>
+      <c r="L370" s="5">
+        <v>20</v>
+      </c>
+      <c r="M370" s="5">
+        <v>20</v>
+      </c>
+      <c r="N370" s="5">
+        <v>20</v>
+      </c>
+      <c r="O370" s="5">
+        <v>20</v>
+      </c>
+      <c r="P370" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q370" s="5">
+        <v>20</v>
+      </c>
+      <c r="R370" s="5">
+        <v>20</v>
+      </c>
+      <c r="S370" s="5">
+        <v>20</v>
+      </c>
+      <c r="T370" s="5">
+        <v>20</v>
+      </c>
+      <c r="U370" s="5">
+        <v>20</v>
+      </c>
+      <c r="V370" s="5">
+        <v>20</v>
+      </c>
+      <c r="W370" s="5">
+        <v>20</v>
+      </c>
+      <c r="X370" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C371" s="5">
         <v>0</v>
       </c>
       <c r="D371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X371" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C372" s="5">
         <v>0</v>
       </c>
       <c r="D372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X372" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C373" s="5">
         <v>0</v>
@@ -29351,158 +29366,158 @@
     </row>
     <row r="374" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C374" s="5">
-        <v>0</v>
-      </c>
-      <c r="D374" s="5">
-        <v>0</v>
-      </c>
-      <c r="E374" s="5">
-        <v>0</v>
-      </c>
-      <c r="F374" s="5">
-        <v>0</v>
-      </c>
-      <c r="G374" s="5">
-        <v>0</v>
-      </c>
-      <c r="H374" s="5">
-        <v>0</v>
-      </c>
-      <c r="I374" s="5">
-        <v>0</v>
-      </c>
-      <c r="J374" s="5">
-        <v>0</v>
-      </c>
-      <c r="K374" s="5">
-        <v>0</v>
-      </c>
-      <c r="L374" s="5">
-        <v>0</v>
-      </c>
-      <c r="M374" s="5">
-        <v>0</v>
-      </c>
-      <c r="N374" s="5">
-        <v>0</v>
-      </c>
-      <c r="O374" s="5">
-        <v>0</v>
-      </c>
-      <c r="P374" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q374" s="5">
-        <v>0</v>
-      </c>
-      <c r="R374" s="5">
-        <v>0</v>
-      </c>
-      <c r="S374" s="5">
-        <v>0</v>
-      </c>
-      <c r="T374" s="5">
-        <v>0</v>
-      </c>
-      <c r="U374" s="5">
-        <v>0</v>
-      </c>
-      <c r="V374" s="5">
-        <v>0</v>
-      </c>
-      <c r="W374" s="5">
-        <v>0</v>
-      </c>
-      <c r="X374" s="5">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="C374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="D374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="E374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="F374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="G374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="H374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="I374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="J374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="K374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="L374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="M374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="N374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="O374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="P374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="Q374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="R374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="S374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="T374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="U374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="V374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="W374" s="9">
+        <v>17581</v>
+      </c>
+      <c r="X374" s="9">
+        <v>17581</v>
       </c>
     </row>
     <row r="375" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C375" s="5">
-        <v>0</v>
-      </c>
-      <c r="D375" s="5">
-        <v>0</v>
-      </c>
-      <c r="E375" s="5">
-        <v>0</v>
-      </c>
-      <c r="F375" s="5">
-        <v>0</v>
-      </c>
-      <c r="G375" s="5">
-        <v>0</v>
-      </c>
-      <c r="H375" s="5">
-        <v>0</v>
-      </c>
-      <c r="I375" s="5">
-        <v>0</v>
-      </c>
-      <c r="J375" s="5">
-        <v>0</v>
-      </c>
-      <c r="K375" s="5">
-        <v>0</v>
-      </c>
-      <c r="L375" s="5">
-        <v>0</v>
-      </c>
-      <c r="M375" s="5">
-        <v>0</v>
-      </c>
-      <c r="N375" s="5">
-        <v>0</v>
-      </c>
-      <c r="O375" s="5">
-        <v>0</v>
-      </c>
-      <c r="P375" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q375" s="5">
-        <v>0</v>
-      </c>
-      <c r="R375" s="5">
-        <v>0</v>
-      </c>
-      <c r="S375" s="5">
-        <v>0</v>
-      </c>
-      <c r="T375" s="5">
-        <v>0</v>
-      </c>
-      <c r="U375" s="5">
-        <v>0</v>
-      </c>
-      <c r="V375" s="5">
-        <v>0</v>
-      </c>
-      <c r="W375" s="5">
-        <v>0</v>
-      </c>
-      <c r="X375" s="5">
+        <v>329</v>
+      </c>
+      <c r="C375" s="10">
+        <v>0</v>
+      </c>
+      <c r="D375" s="9">
+        <v>17581</v>
+      </c>
+      <c r="E375" s="10">
+        <v>0</v>
+      </c>
+      <c r="F375" s="10">
+        <v>0</v>
+      </c>
+      <c r="G375" s="10">
+        <v>0</v>
+      </c>
+      <c r="H375" s="10">
+        <v>0</v>
+      </c>
+      <c r="I375" s="9">
+        <v>17581</v>
+      </c>
+      <c r="J375" s="10">
+        <v>0</v>
+      </c>
+      <c r="K375" s="10">
+        <v>0</v>
+      </c>
+      <c r="L375" s="10">
+        <v>0</v>
+      </c>
+      <c r="M375" s="10">
+        <v>0</v>
+      </c>
+      <c r="N375" s="10">
+        <v>0</v>
+      </c>
+      <c r="O375" s="10">
+        <v>0</v>
+      </c>
+      <c r="P375" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q375" s="10">
+        <v>0</v>
+      </c>
+      <c r="R375" s="10">
+        <v>0</v>
+      </c>
+      <c r="S375" s="10">
+        <v>0</v>
+      </c>
+      <c r="T375" s="10">
+        <v>0</v>
+      </c>
+      <c r="U375" s="10">
+        <v>0</v>
+      </c>
+      <c r="V375" s="10">
+        <v>0</v>
+      </c>
+      <c r="W375" s="10">
+        <v>0</v>
+      </c>
+      <c r="X375" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="4">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C376" s="5">
         <v>0</v>
@@ -29573,10 +29588,10 @@
     </row>
     <row r="377" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C377" s="5">
         <v>0</v>
@@ -29647,10 +29662,10 @@
     </row>
     <row r="378" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="4">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C378" s="5">
         <v>0</v>
@@ -29721,10 +29736,10 @@
     </row>
     <row r="379" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="4">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C379" s="5">
         <v>0</v>
@@ -29795,1120 +29810,1120 @@
     </row>
     <row r="380" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="4">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C380" s="5">
         <v>0</v>
       </c>
-      <c r="D380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="E380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="F380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="G380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="H380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="I380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="J380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="K380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="L380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="M380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="N380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="O380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="P380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="Q380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="R380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="S380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="T380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="U380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="V380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="W380" s="6">
-        <v>2239</v>
-      </c>
-      <c r="X380" s="6">
-        <v>2239</v>
+      <c r="D380" s="5">
+        <v>0</v>
+      </c>
+      <c r="E380" s="5">
+        <v>0</v>
+      </c>
+      <c r="F380" s="5">
+        <v>0</v>
+      </c>
+      <c r="G380" s="5">
+        <v>0</v>
+      </c>
+      <c r="H380" s="5">
+        <v>0</v>
+      </c>
+      <c r="I380" s="5">
+        <v>0</v>
+      </c>
+      <c r="J380" s="5">
+        <v>0</v>
+      </c>
+      <c r="K380" s="5">
+        <v>0</v>
+      </c>
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+      <c r="N380" s="5">
+        <v>0</v>
+      </c>
+      <c r="O380" s="5">
+        <v>0</v>
+      </c>
+      <c r="P380" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q380" s="5">
+        <v>0</v>
+      </c>
+      <c r="R380" s="5">
+        <v>0</v>
+      </c>
+      <c r="S380" s="5">
+        <v>0</v>
+      </c>
+      <c r="T380" s="5">
+        <v>0</v>
+      </c>
+      <c r="U380" s="5">
+        <v>0</v>
+      </c>
+      <c r="V380" s="5">
+        <v>0</v>
+      </c>
+      <c r="W380" s="5">
+        <v>0</v>
+      </c>
+      <c r="X380" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="4">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C381" s="5">
         <v>0</v>
       </c>
-      <c r="D381" s="10">
-        <v>1</v>
-      </c>
-      <c r="E381" s="10">
-        <v>1</v>
-      </c>
-      <c r="F381" s="10">
-        <v>1</v>
-      </c>
-      <c r="G381" s="10">
-        <v>1</v>
-      </c>
-      <c r="H381" s="10">
-        <v>1</v>
-      </c>
-      <c r="I381" s="10">
-        <v>1</v>
-      </c>
-      <c r="J381" s="10">
-        <v>1</v>
-      </c>
-      <c r="K381" s="10">
-        <v>1</v>
-      </c>
-      <c r="L381" s="10">
-        <v>1</v>
-      </c>
-      <c r="M381" s="10">
-        <v>1</v>
-      </c>
-      <c r="N381" s="10">
-        <v>1</v>
-      </c>
-      <c r="O381" s="10">
-        <v>1</v>
-      </c>
-      <c r="P381" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q381" s="10">
-        <v>1</v>
-      </c>
-      <c r="R381" s="10">
-        <v>1</v>
-      </c>
-      <c r="S381" s="10">
-        <v>1</v>
-      </c>
-      <c r="T381" s="10">
-        <v>1</v>
-      </c>
-      <c r="U381" s="10">
-        <v>1</v>
-      </c>
-      <c r="V381" s="10">
-        <v>1</v>
-      </c>
-      <c r="W381" s="10">
-        <v>1</v>
-      </c>
-      <c r="X381" s="10">
-        <v>1</v>
+      <c r="D381" s="5">
+        <v>0</v>
+      </c>
+      <c r="E381" s="5">
+        <v>0</v>
+      </c>
+      <c r="F381" s="5">
+        <v>0</v>
+      </c>
+      <c r="G381" s="5">
+        <v>0</v>
+      </c>
+      <c r="H381" s="5">
+        <v>0</v>
+      </c>
+      <c r="I381" s="5">
+        <v>0</v>
+      </c>
+      <c r="J381" s="5">
+        <v>0</v>
+      </c>
+      <c r="K381" s="5">
+        <v>0</v>
+      </c>
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+      <c r="N381" s="5">
+        <v>0</v>
+      </c>
+      <c r="O381" s="5">
+        <v>0</v>
+      </c>
+      <c r="P381" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q381" s="5">
+        <v>0</v>
+      </c>
+      <c r="R381" s="5">
+        <v>0</v>
+      </c>
+      <c r="S381" s="5">
+        <v>0</v>
+      </c>
+      <c r="T381" s="5">
+        <v>0</v>
+      </c>
+      <c r="U381" s="5">
+        <v>0</v>
+      </c>
+      <c r="V381" s="5">
+        <v>0</v>
+      </c>
+      <c r="W381" s="5">
+        <v>0</v>
+      </c>
+      <c r="X381" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C382" s="5">
         <v>0</v>
       </c>
-      <c r="D382" s="10">
-        <v>0</v>
-      </c>
-      <c r="E382" s="10">
-        <v>0</v>
-      </c>
-      <c r="F382" s="10">
-        <v>0</v>
-      </c>
-      <c r="G382" s="10">
-        <v>0</v>
-      </c>
-      <c r="H382" s="10">
-        <v>0</v>
-      </c>
-      <c r="I382" s="10">
-        <v>0</v>
-      </c>
-      <c r="J382" s="9">
-        <v>0</v>
-      </c>
-      <c r="K382" s="9">
-        <v>0</v>
-      </c>
-      <c r="L382" s="9">
-        <v>0</v>
-      </c>
-      <c r="M382" s="9">
-        <v>0</v>
-      </c>
-      <c r="N382" s="9">
-        <v>0</v>
-      </c>
-      <c r="O382" s="9">
-        <v>0</v>
-      </c>
-      <c r="P382" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q382" s="9">
-        <v>0</v>
-      </c>
-      <c r="R382" s="9">
-        <v>0</v>
-      </c>
-      <c r="S382" s="9">
-        <v>0</v>
-      </c>
-      <c r="T382" s="9">
-        <v>0</v>
-      </c>
-      <c r="U382" s="9">
-        <v>0</v>
-      </c>
-      <c r="V382" s="9">
-        <v>0</v>
-      </c>
-      <c r="W382" s="9">
-        <v>0</v>
-      </c>
-      <c r="X382" s="10">
+      <c r="D382" s="5">
+        <v>0</v>
+      </c>
+      <c r="E382" s="5">
+        <v>0</v>
+      </c>
+      <c r="F382" s="5">
+        <v>0</v>
+      </c>
+      <c r="G382" s="5">
+        <v>0</v>
+      </c>
+      <c r="H382" s="5">
+        <v>0</v>
+      </c>
+      <c r="I382" s="5">
+        <v>0</v>
+      </c>
+      <c r="J382" s="5">
+        <v>0</v>
+      </c>
+      <c r="K382" s="5">
+        <v>0</v>
+      </c>
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+      <c r="N382" s="5">
+        <v>0</v>
+      </c>
+      <c r="O382" s="5">
+        <v>0</v>
+      </c>
+      <c r="P382" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q382" s="5">
+        <v>0</v>
+      </c>
+      <c r="R382" s="5">
+        <v>0</v>
+      </c>
+      <c r="S382" s="5">
+        <v>0</v>
+      </c>
+      <c r="T382" s="5">
+        <v>0</v>
+      </c>
+      <c r="U382" s="5">
+        <v>0</v>
+      </c>
+      <c r="V382" s="5">
+        <v>0</v>
+      </c>
+      <c r="W382" s="5">
+        <v>0</v>
+      </c>
+      <c r="X382" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="4">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C383" s="5">
         <v>0</v>
       </c>
-      <c r="D383" s="10">
-        <v>0</v>
-      </c>
-      <c r="E383" s="10">
-        <v>0</v>
-      </c>
-      <c r="F383" s="10">
-        <v>0</v>
-      </c>
-      <c r="G383" s="10">
-        <v>0</v>
-      </c>
-      <c r="H383" s="10">
-        <v>0</v>
-      </c>
-      <c r="I383" s="10">
-        <v>0</v>
-      </c>
-      <c r="J383" s="9">
-        <v>0</v>
-      </c>
-      <c r="K383" s="9">
-        <v>0</v>
-      </c>
-      <c r="L383" s="9">
-        <v>0</v>
-      </c>
-      <c r="M383" s="9">
-        <v>0</v>
-      </c>
-      <c r="N383" s="9">
-        <v>0</v>
-      </c>
-      <c r="O383" s="9">
-        <v>0</v>
-      </c>
-      <c r="P383" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q383" s="9">
-        <v>0</v>
-      </c>
-      <c r="R383" s="9">
-        <v>0</v>
-      </c>
-      <c r="S383" s="9">
-        <v>0</v>
-      </c>
-      <c r="T383" s="9">
-        <v>0</v>
-      </c>
-      <c r="U383" s="9">
-        <v>0</v>
-      </c>
-      <c r="V383" s="9">
-        <v>0</v>
-      </c>
-      <c r="W383" s="9">
-        <v>0</v>
-      </c>
-      <c r="X383" s="10">
+      <c r="D383" s="5">
+        <v>0</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0</v>
+      </c>
+      <c r="F383" s="5">
+        <v>0</v>
+      </c>
+      <c r="G383" s="5">
+        <v>0</v>
+      </c>
+      <c r="H383" s="5">
+        <v>0</v>
+      </c>
+      <c r="I383" s="5">
+        <v>0</v>
+      </c>
+      <c r="J383" s="5">
+        <v>0</v>
+      </c>
+      <c r="K383" s="5">
+        <v>0</v>
+      </c>
+      <c r="L383" s="5">
+        <v>0</v>
+      </c>
+      <c r="M383" s="5">
+        <v>0</v>
+      </c>
+      <c r="N383" s="5">
+        <v>0</v>
+      </c>
+      <c r="O383" s="5">
+        <v>0</v>
+      </c>
+      <c r="P383" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="5">
+        <v>0</v>
+      </c>
+      <c r="R383" s="5">
+        <v>0</v>
+      </c>
+      <c r="S383" s="5">
+        <v>0</v>
+      </c>
+      <c r="T383" s="5">
+        <v>0</v>
+      </c>
+      <c r="U383" s="5">
+        <v>0</v>
+      </c>
+      <c r="V383" s="5">
+        <v>0</v>
+      </c>
+      <c r="W383" s="5">
+        <v>0</v>
+      </c>
+      <c r="X383" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="4">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C384" s="5">
         <v>0</v>
       </c>
-      <c r="D384" s="10">
-        <v>0</v>
-      </c>
-      <c r="E384" s="10">
-        <v>0</v>
-      </c>
-      <c r="F384" s="10">
-        <v>0</v>
-      </c>
-      <c r="G384" s="10">
-        <v>0</v>
-      </c>
-      <c r="H384" s="10">
-        <v>0</v>
-      </c>
-      <c r="I384" s="10">
-        <v>0</v>
-      </c>
-      <c r="J384" s="9">
-        <v>0</v>
-      </c>
-      <c r="K384" s="9">
-        <v>0</v>
-      </c>
-      <c r="L384" s="9">
-        <v>0</v>
-      </c>
-      <c r="M384" s="9">
-        <v>0</v>
-      </c>
-      <c r="N384" s="9">
-        <v>0</v>
-      </c>
-      <c r="O384" s="9">
-        <v>0</v>
-      </c>
-      <c r="P384" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q384" s="9">
-        <v>0</v>
-      </c>
-      <c r="R384" s="9">
-        <v>0</v>
-      </c>
-      <c r="S384" s="9">
-        <v>0</v>
-      </c>
-      <c r="T384" s="9">
-        <v>0</v>
-      </c>
-      <c r="U384" s="9">
-        <v>0</v>
-      </c>
-      <c r="V384" s="9">
-        <v>0</v>
-      </c>
-      <c r="W384" s="9">
-        <v>0</v>
-      </c>
-      <c r="X384" s="10">
+      <c r="D384" s="5">
+        <v>0</v>
+      </c>
+      <c r="E384" s="5">
+        <v>0</v>
+      </c>
+      <c r="F384" s="5">
+        <v>0</v>
+      </c>
+      <c r="G384" s="5">
+        <v>0</v>
+      </c>
+      <c r="H384" s="5">
+        <v>0</v>
+      </c>
+      <c r="I384" s="5">
+        <v>0</v>
+      </c>
+      <c r="J384" s="5">
+        <v>0</v>
+      </c>
+      <c r="K384" s="5">
+        <v>0</v>
+      </c>
+      <c r="L384" s="5">
+        <v>0</v>
+      </c>
+      <c r="M384" s="5">
+        <v>0</v>
+      </c>
+      <c r="N384" s="5">
+        <v>0</v>
+      </c>
+      <c r="O384" s="5">
+        <v>0</v>
+      </c>
+      <c r="P384" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q384" s="5">
+        <v>0</v>
+      </c>
+      <c r="R384" s="5">
+        <v>0</v>
+      </c>
+      <c r="S384" s="5">
+        <v>0</v>
+      </c>
+      <c r="T384" s="5">
+        <v>0</v>
+      </c>
+      <c r="U384" s="5">
+        <v>0</v>
+      </c>
+      <c r="V384" s="5">
+        <v>0</v>
+      </c>
+      <c r="W384" s="5">
+        <v>0</v>
+      </c>
+      <c r="X384" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C385" s="5">
         <v>0</v>
       </c>
-      <c r="D385" s="10">
-        <v>0</v>
-      </c>
-      <c r="E385" s="10">
-        <v>0</v>
-      </c>
-      <c r="F385" s="10">
-        <v>0</v>
-      </c>
-      <c r="G385" s="10">
-        <v>0</v>
-      </c>
-      <c r="H385" s="10">
-        <v>0</v>
-      </c>
-      <c r="I385" s="10">
-        <v>0</v>
-      </c>
-      <c r="J385" s="9">
-        <v>0</v>
-      </c>
-      <c r="K385" s="9">
-        <v>0</v>
-      </c>
-      <c r="L385" s="9">
-        <v>0</v>
-      </c>
-      <c r="M385" s="9">
-        <v>0</v>
-      </c>
-      <c r="N385" s="9">
-        <v>0</v>
-      </c>
-      <c r="O385" s="9">
-        <v>0</v>
-      </c>
-      <c r="P385" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q385" s="9">
-        <v>0</v>
-      </c>
-      <c r="R385" s="9">
-        <v>0</v>
-      </c>
-      <c r="S385" s="9">
-        <v>0</v>
-      </c>
-      <c r="T385" s="9">
-        <v>0</v>
-      </c>
-      <c r="U385" s="9">
-        <v>0</v>
-      </c>
-      <c r="V385" s="9">
-        <v>0</v>
-      </c>
-      <c r="W385" s="9">
-        <v>0</v>
-      </c>
-      <c r="X385" s="10">
-        <v>0</v>
+      <c r="D385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="E385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="F385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="G385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="H385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="I385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="J385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="K385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="L385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="M385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="N385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="O385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="P385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="Q385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="R385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="S385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="T385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="U385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="V385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="W385" s="6">
+        <v>2239</v>
+      </c>
+      <c r="X385" s="6">
+        <v>2239</v>
       </c>
     </row>
     <row r="386" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="4">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C386" s="5">
         <v>0</v>
       </c>
-      <c r="D386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="E386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="F386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="G386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="H386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="I386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="J386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="K386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="L386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="M386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="N386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="O386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="P386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="Q386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="R386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="S386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="T386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="U386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="V386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="W386" s="6">
-        <v>56237</v>
-      </c>
-      <c r="X386" s="6">
-        <v>56237</v>
+      <c r="D386" s="10">
+        <v>1</v>
+      </c>
+      <c r="E386" s="10">
+        <v>1</v>
+      </c>
+      <c r="F386" s="10">
+        <v>1</v>
+      </c>
+      <c r="G386" s="10">
+        <v>1</v>
+      </c>
+      <c r="H386" s="10">
+        <v>1</v>
+      </c>
+      <c r="I386" s="10">
+        <v>1</v>
+      </c>
+      <c r="J386" s="10">
+        <v>1</v>
+      </c>
+      <c r="K386" s="10">
+        <v>1</v>
+      </c>
+      <c r="L386" s="10">
+        <v>1</v>
+      </c>
+      <c r="M386" s="10">
+        <v>1</v>
+      </c>
+      <c r="N386" s="10">
+        <v>1</v>
+      </c>
+      <c r="O386" s="10">
+        <v>1</v>
+      </c>
+      <c r="P386" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q386" s="10">
+        <v>1</v>
+      </c>
+      <c r="R386" s="10">
+        <v>1</v>
+      </c>
+      <c r="S386" s="10">
+        <v>1</v>
+      </c>
+      <c r="T386" s="10">
+        <v>1</v>
+      </c>
+      <c r="U386" s="10">
+        <v>1</v>
+      </c>
+      <c r="V386" s="10">
+        <v>1</v>
+      </c>
+      <c r="W386" s="10">
+        <v>1</v>
+      </c>
+      <c r="X386" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="4">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C387" s="5">
         <v>0</v>
       </c>
-      <c r="D387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="E387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="F387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="G387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="H387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="I387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="J387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="K387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="L387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="M387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="N387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="O387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="P387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="Q387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="R387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="S387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="T387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="U387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="V387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="W387" s="6">
-        <v>56237</v>
-      </c>
-      <c r="X387" s="6">
-        <v>56237</v>
+      <c r="D387" s="10">
+        <v>0</v>
+      </c>
+      <c r="E387" s="10">
+        <v>0</v>
+      </c>
+      <c r="F387" s="10">
+        <v>0</v>
+      </c>
+      <c r="G387" s="10">
+        <v>0</v>
+      </c>
+      <c r="H387" s="10">
+        <v>0</v>
+      </c>
+      <c r="I387" s="10">
+        <v>0</v>
+      </c>
+      <c r="J387" s="9">
+        <v>0</v>
+      </c>
+      <c r="K387" s="9">
+        <v>0</v>
+      </c>
+      <c r="L387" s="9">
+        <v>0</v>
+      </c>
+      <c r="M387" s="9">
+        <v>0</v>
+      </c>
+      <c r="N387" s="9">
+        <v>0</v>
+      </c>
+      <c r="O387" s="9">
+        <v>0</v>
+      </c>
+      <c r="P387" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="9">
+        <v>0</v>
+      </c>
+      <c r="R387" s="9">
+        <v>0</v>
+      </c>
+      <c r="S387" s="9">
+        <v>0</v>
+      </c>
+      <c r="T387" s="9">
+        <v>0</v>
+      </c>
+      <c r="U387" s="9">
+        <v>0</v>
+      </c>
+      <c r="V387" s="9">
+        <v>0</v>
+      </c>
+      <c r="W387" s="9">
+        <v>0</v>
+      </c>
+      <c r="X387" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C388" s="5">
         <v>0</v>
       </c>
-      <c r="D388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="E388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="F388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="G388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="H388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="I388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="J388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="K388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="L388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="M388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="N388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="O388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="P388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="Q388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="R388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="S388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="T388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="U388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="V388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="W388" s="6">
-        <v>59051</v>
-      </c>
-      <c r="X388" s="6">
-        <v>59051</v>
+      <c r="D388" s="10">
+        <v>0</v>
+      </c>
+      <c r="E388" s="10">
+        <v>0</v>
+      </c>
+      <c r="F388" s="10">
+        <v>0</v>
+      </c>
+      <c r="G388" s="10">
+        <v>0</v>
+      </c>
+      <c r="H388" s="10">
+        <v>0</v>
+      </c>
+      <c r="I388" s="10">
+        <v>0</v>
+      </c>
+      <c r="J388" s="9">
+        <v>0</v>
+      </c>
+      <c r="K388" s="9">
+        <v>0</v>
+      </c>
+      <c r="L388" s="9">
+        <v>0</v>
+      </c>
+      <c r="M388" s="9">
+        <v>0</v>
+      </c>
+      <c r="N388" s="9">
+        <v>0</v>
+      </c>
+      <c r="O388" s="9">
+        <v>0</v>
+      </c>
+      <c r="P388" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q388" s="9">
+        <v>0</v>
+      </c>
+      <c r="R388" s="9">
+        <v>0</v>
+      </c>
+      <c r="S388" s="9">
+        <v>0</v>
+      </c>
+      <c r="T388" s="9">
+        <v>0</v>
+      </c>
+      <c r="U388" s="9">
+        <v>0</v>
+      </c>
+      <c r="V388" s="9">
+        <v>0</v>
+      </c>
+      <c r="W388" s="9">
+        <v>0</v>
+      </c>
+      <c r="X388" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C389" s="5">
         <v>0</v>
       </c>
-      <c r="D389" s="11">
-        <v>563</v>
-      </c>
-      <c r="E389" s="11">
-        <v>563</v>
-      </c>
-      <c r="F389" s="11">
-        <v>563</v>
-      </c>
-      <c r="G389" s="11">
-        <v>563</v>
-      </c>
-      <c r="H389" s="11">
-        <v>563</v>
-      </c>
-      <c r="I389" s="11">
-        <v>563</v>
-      </c>
-      <c r="J389" s="5">
-        <v>563</v>
-      </c>
-      <c r="K389" s="5">
-        <v>563</v>
-      </c>
-      <c r="L389" s="5">
-        <v>563</v>
-      </c>
-      <c r="M389" s="5">
-        <v>563</v>
-      </c>
-      <c r="N389" s="5">
-        <v>563</v>
-      </c>
-      <c r="O389" s="5">
-        <v>563</v>
-      </c>
-      <c r="P389" s="5">
-        <v>563</v>
-      </c>
-      <c r="Q389" s="5">
-        <v>563</v>
-      </c>
-      <c r="R389" s="5">
-        <v>563</v>
-      </c>
-      <c r="S389" s="5">
-        <v>563</v>
-      </c>
-      <c r="T389" s="5">
-        <v>563</v>
-      </c>
-      <c r="U389" s="5">
-        <v>563</v>
-      </c>
-      <c r="V389" s="5">
-        <v>563</v>
-      </c>
-      <c r="W389" s="5">
-        <v>563</v>
-      </c>
-      <c r="X389" s="11">
-        <v>563</v>
+      <c r="D389" s="10">
+        <v>0</v>
+      </c>
+      <c r="E389" s="10">
+        <v>0</v>
+      </c>
+      <c r="F389" s="10">
+        <v>0</v>
+      </c>
+      <c r="G389" s="10">
+        <v>0</v>
+      </c>
+      <c r="H389" s="10">
+        <v>0</v>
+      </c>
+      <c r="I389" s="10">
+        <v>0</v>
+      </c>
+      <c r="J389" s="9">
+        <v>0</v>
+      </c>
+      <c r="K389" s="9">
+        <v>0</v>
+      </c>
+      <c r="L389" s="9">
+        <v>0</v>
+      </c>
+      <c r="M389" s="9">
+        <v>0</v>
+      </c>
+      <c r="N389" s="9">
+        <v>0</v>
+      </c>
+      <c r="O389" s="9">
+        <v>0</v>
+      </c>
+      <c r="P389" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q389" s="9">
+        <v>0</v>
+      </c>
+      <c r="R389" s="9">
+        <v>0</v>
+      </c>
+      <c r="S389" s="9">
+        <v>0</v>
+      </c>
+      <c r="T389" s="9">
+        <v>0</v>
+      </c>
+      <c r="U389" s="9">
+        <v>0</v>
+      </c>
+      <c r="V389" s="9">
+        <v>0</v>
+      </c>
+      <c r="W389" s="9">
+        <v>0</v>
+      </c>
+      <c r="X389" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C390" s="5">
         <v>0</v>
       </c>
-      <c r="D390" s="5">
-        <v>0</v>
-      </c>
-      <c r="E390" s="5">
-        <v>0</v>
-      </c>
-      <c r="F390" s="5">
-        <v>0</v>
-      </c>
-      <c r="G390" s="5">
-        <v>0</v>
-      </c>
-      <c r="H390" s="5">
-        <v>0</v>
-      </c>
-      <c r="I390" s="5">
-        <v>0</v>
-      </c>
-      <c r="J390" s="5">
-        <v>0</v>
-      </c>
-      <c r="K390" s="5">
-        <v>0</v>
-      </c>
-      <c r="L390" s="5">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5">
-        <v>0</v>
-      </c>
-      <c r="O390" s="5">
-        <v>0</v>
-      </c>
-      <c r="P390" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q390" s="5">
-        <v>0</v>
-      </c>
-      <c r="R390" s="5">
-        <v>0</v>
-      </c>
-      <c r="S390" s="5">
-        <v>0</v>
-      </c>
-      <c r="T390" s="5">
-        <v>0</v>
-      </c>
-      <c r="U390" s="5">
-        <v>0</v>
-      </c>
-      <c r="V390" s="5">
-        <v>0</v>
-      </c>
-      <c r="W390" s="5">
-        <v>0</v>
-      </c>
-      <c r="X390" s="5">
+      <c r="D390" s="10">
+        <v>0</v>
+      </c>
+      <c r="E390" s="10">
+        <v>0</v>
+      </c>
+      <c r="F390" s="10">
+        <v>0</v>
+      </c>
+      <c r="G390" s="10">
+        <v>0</v>
+      </c>
+      <c r="H390" s="10">
+        <v>0</v>
+      </c>
+      <c r="I390" s="10">
+        <v>0</v>
+      </c>
+      <c r="J390" s="9">
+        <v>0</v>
+      </c>
+      <c r="K390" s="9">
+        <v>0</v>
+      </c>
+      <c r="L390" s="9">
+        <v>0</v>
+      </c>
+      <c r="M390" s="9">
+        <v>0</v>
+      </c>
+      <c r="N390" s="9">
+        <v>0</v>
+      </c>
+      <c r="O390" s="9">
+        <v>0</v>
+      </c>
+      <c r="P390" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="9">
+        <v>0</v>
+      </c>
+      <c r="R390" s="9">
+        <v>0</v>
+      </c>
+      <c r="S390" s="9">
+        <v>0</v>
+      </c>
+      <c r="T390" s="9">
+        <v>0</v>
+      </c>
+      <c r="U390" s="9">
+        <v>0</v>
+      </c>
+      <c r="V390" s="9">
+        <v>0</v>
+      </c>
+      <c r="W390" s="9">
+        <v>0</v>
+      </c>
+      <c r="X390" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C391" s="5">
         <v>0</v>
       </c>
-      <c r="D391" s="5">
-        <v>0</v>
-      </c>
-      <c r="E391" s="5">
-        <v>0</v>
-      </c>
-      <c r="F391" s="5">
-        <v>0</v>
-      </c>
-      <c r="G391" s="5">
-        <v>0</v>
-      </c>
-      <c r="H391" s="5">
-        <v>0</v>
-      </c>
-      <c r="I391" s="5">
-        <v>0</v>
-      </c>
-      <c r="J391" s="5">
-        <v>0</v>
-      </c>
-      <c r="K391" s="5">
-        <v>0</v>
-      </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5">
-        <v>0</v>
-      </c>
-      <c r="O391" s="5">
-        <v>0</v>
-      </c>
-      <c r="P391" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q391" s="5">
-        <v>0</v>
-      </c>
-      <c r="R391" s="5">
-        <v>0</v>
-      </c>
-      <c r="S391" s="5">
-        <v>0</v>
-      </c>
-      <c r="T391" s="5">
-        <v>0</v>
-      </c>
-      <c r="U391" s="5">
-        <v>0</v>
-      </c>
-      <c r="V391" s="5">
-        <v>0</v>
-      </c>
-      <c r="W391" s="5">
-        <v>0</v>
-      </c>
-      <c r="X391" s="5">
-        <v>0</v>
+      <c r="D391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="E391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="F391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="G391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="H391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="I391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="J391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="K391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="L391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="M391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="N391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="O391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="P391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="Q391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="R391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="S391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="T391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="U391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="V391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="W391" s="6">
+        <v>56237</v>
+      </c>
+      <c r="X391" s="6">
+        <v>56237</v>
       </c>
     </row>
     <row r="392" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="4">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C392" s="5">
         <v>0</v>
       </c>
-      <c r="D392" s="5">
-        <v>0</v>
-      </c>
-      <c r="E392" s="5">
-        <v>0</v>
-      </c>
-      <c r="F392" s="5">
-        <v>0</v>
-      </c>
-      <c r="G392" s="5">
-        <v>0</v>
-      </c>
-      <c r="H392" s="5">
-        <v>0</v>
-      </c>
-      <c r="I392" s="5">
-        <v>0</v>
-      </c>
-      <c r="J392" s="5">
-        <v>0</v>
-      </c>
-      <c r="K392" s="5">
-        <v>0</v>
-      </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5">
-        <v>0</v>
-      </c>
-      <c r="O392" s="5">
-        <v>0</v>
-      </c>
-      <c r="P392" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q392" s="5">
-        <v>0</v>
-      </c>
-      <c r="R392" s="5">
-        <v>0</v>
-      </c>
-      <c r="S392" s="5">
-        <v>0</v>
-      </c>
-      <c r="T392" s="5">
-        <v>0</v>
-      </c>
-      <c r="U392" s="5">
-        <v>0</v>
-      </c>
-      <c r="V392" s="5">
-        <v>0</v>
-      </c>
-      <c r="W392" s="5">
-        <v>0</v>
-      </c>
-      <c r="X392" s="5">
-        <v>0</v>
+      <c r="D392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="E392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="F392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="G392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="H392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="I392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="J392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="K392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="L392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="M392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="N392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="O392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="P392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="Q392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="R392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="S392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="T392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="U392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="V392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="W392" s="6">
+        <v>56237</v>
+      </c>
+      <c r="X392" s="6">
+        <v>56237</v>
       </c>
     </row>
     <row r="393" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="4">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C393" s="5">
         <v>0</v>
       </c>
-      <c r="D393" s="5">
-        <v>0</v>
-      </c>
-      <c r="E393" s="5">
-        <v>0</v>
-      </c>
-      <c r="F393" s="5">
-        <v>0</v>
-      </c>
-      <c r="G393" s="5">
-        <v>0</v>
-      </c>
-      <c r="H393" s="5">
-        <v>0</v>
-      </c>
-      <c r="I393" s="5">
-        <v>0</v>
-      </c>
-      <c r="J393" s="5">
-        <v>0</v>
-      </c>
-      <c r="K393" s="5">
-        <v>0</v>
-      </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5">
-        <v>0</v>
-      </c>
-      <c r="O393" s="5">
-        <v>0</v>
-      </c>
-      <c r="P393" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q393" s="5">
-        <v>0</v>
-      </c>
-      <c r="R393" s="5">
-        <v>0</v>
-      </c>
-      <c r="S393" s="5">
-        <v>0</v>
-      </c>
-      <c r="T393" s="5">
-        <v>0</v>
-      </c>
-      <c r="U393" s="5">
-        <v>0</v>
-      </c>
-      <c r="V393" s="5">
-        <v>0</v>
-      </c>
-      <c r="W393" s="5">
-        <v>0</v>
-      </c>
-      <c r="X393" s="5">
-        <v>0</v>
+      <c r="D393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="E393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="F393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="G393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="H393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="I393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="J393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="K393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="L393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="M393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="N393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="O393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="P393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="Q393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="R393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="S393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="T393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="U393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="V393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="W393" s="6">
+        <v>59051</v>
+      </c>
+      <c r="X393" s="6">
+        <v>59051</v>
       </c>
     </row>
     <row r="394" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="4">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C394" s="5">
         <v>0</v>
       </c>
-      <c r="D394" s="5">
-        <v>0</v>
-      </c>
-      <c r="E394" s="5">
-        <v>0</v>
-      </c>
-      <c r="F394" s="5">
-        <v>0</v>
-      </c>
-      <c r="G394" s="5">
-        <v>0</v>
-      </c>
-      <c r="H394" s="5">
-        <v>0</v>
-      </c>
-      <c r="I394" s="5">
-        <v>0</v>
+      <c r="D394" s="11">
+        <v>563</v>
+      </c>
+      <c r="E394" s="11">
+        <v>563</v>
+      </c>
+      <c r="F394" s="11">
+        <v>563</v>
+      </c>
+      <c r="G394" s="11">
+        <v>563</v>
+      </c>
+      <c r="H394" s="11">
+        <v>563</v>
+      </c>
+      <c r="I394" s="11">
+        <v>563</v>
       </c>
       <c r="J394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="K394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="L394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="M394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="N394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="O394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="P394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="Q394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="R394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="S394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="T394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="U394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="V394" s="5">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="W394" s="5">
-        <v>0</v>
-      </c>
-      <c r="X394" s="5">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="X394" s="11">
+        <v>563</v>
       </c>
     </row>
     <row r="395" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C395" s="5">
         <v>0</v>
@@ -30979,10 +30994,10 @@
     </row>
     <row r="396" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="4">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C396" s="5">
         <v>0</v>
@@ -31053,10 +31068,10 @@
     </row>
     <row r="397" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="4">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C397" s="5">
         <v>0</v>
@@ -31127,10 +31142,10 @@
     </row>
     <row r="398" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C398" s="5">
         <v>0</v>
@@ -31201,10 +31216,10 @@
     </row>
     <row r="399" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C399" s="5">
         <v>0</v>
@@ -31275,10 +31290,10 @@
     </row>
     <row r="400" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="4">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C400" s="5">
         <v>0</v>
@@ -31349,84 +31364,84 @@
     </row>
     <row r="401" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C401" s="5">
         <v>0</v>
       </c>
-      <c r="D401" s="7">
-        <v>3</v>
-      </c>
-      <c r="E401" s="7">
-        <v>3</v>
-      </c>
-      <c r="F401" s="7">
-        <v>3</v>
-      </c>
-      <c r="G401" s="7">
-        <v>3</v>
-      </c>
-      <c r="H401" s="7">
-        <v>3</v>
-      </c>
-      <c r="I401" s="7">
-        <v>3</v>
-      </c>
-      <c r="J401" s="7">
-        <v>3</v>
-      </c>
-      <c r="K401" s="7">
-        <v>3</v>
-      </c>
-      <c r="L401" s="7">
-        <v>3</v>
-      </c>
-      <c r="M401" s="7">
-        <v>3</v>
-      </c>
-      <c r="N401" s="7">
-        <v>3</v>
-      </c>
-      <c r="O401" s="7">
-        <v>3</v>
-      </c>
-      <c r="P401" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q401" s="7">
-        <v>3</v>
-      </c>
-      <c r="R401" s="7">
-        <v>3</v>
-      </c>
-      <c r="S401" s="7">
-        <v>3</v>
-      </c>
-      <c r="T401" s="7">
-        <v>3</v>
-      </c>
-      <c r="U401" s="7">
-        <v>3</v>
-      </c>
-      <c r="V401" s="7">
-        <v>3</v>
-      </c>
-      <c r="W401" s="7">
-        <v>3</v>
-      </c>
-      <c r="X401" s="7">
-        <v>3</v>
+      <c r="D401" s="5">
+        <v>0</v>
+      </c>
+      <c r="E401" s="5">
+        <v>0</v>
+      </c>
+      <c r="F401" s="5">
+        <v>0</v>
+      </c>
+      <c r="G401" s="5">
+        <v>0</v>
+      </c>
+      <c r="H401" s="5">
+        <v>0</v>
+      </c>
+      <c r="I401" s="5">
+        <v>0</v>
+      </c>
+      <c r="J401" s="5">
+        <v>0</v>
+      </c>
+      <c r="K401" s="5">
+        <v>0</v>
+      </c>
+      <c r="L401" s="5">
+        <v>0</v>
+      </c>
+      <c r="M401" s="5">
+        <v>0</v>
+      </c>
+      <c r="N401" s="5">
+        <v>0</v>
+      </c>
+      <c r="O401" s="5">
+        <v>0</v>
+      </c>
+      <c r="P401" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q401" s="5">
+        <v>0</v>
+      </c>
+      <c r="R401" s="5">
+        <v>0</v>
+      </c>
+      <c r="S401" s="5">
+        <v>0</v>
+      </c>
+      <c r="T401" s="5">
+        <v>0</v>
+      </c>
+      <c r="U401" s="5">
+        <v>0</v>
+      </c>
+      <c r="V401" s="5">
+        <v>0</v>
+      </c>
+      <c r="W401" s="5">
+        <v>0</v>
+      </c>
+      <c r="X401" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="4">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C402" s="5">
         <v>0</v>
@@ -31497,10 +31512,10 @@
     </row>
     <row r="403" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C403" s="5">
         <v>0</v>
@@ -31571,10 +31586,10 @@
     </row>
     <row r="404" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C404" s="5">
         <v>0</v>
@@ -31645,10 +31660,10 @@
     </row>
     <row r="405" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="4">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C405" s="5">
         <v>0</v>
@@ -31719,271 +31734,521 @@
     </row>
     <row r="406" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C406" s="5">
         <v>0</v>
       </c>
-      <c r="D406" s="5">
-        <v>0</v>
-      </c>
-      <c r="E406" s="5">
-        <v>0</v>
-      </c>
-      <c r="F406" s="5">
-        <v>0</v>
-      </c>
-      <c r="G406" s="5">
-        <v>0</v>
-      </c>
-      <c r="H406" s="5">
-        <v>0</v>
-      </c>
-      <c r="I406" s="5">
-        <v>0</v>
-      </c>
-      <c r="J406" s="5">
-        <v>0</v>
-      </c>
-      <c r="K406" s="5">
-        <v>0</v>
-      </c>
-      <c r="L406" s="5">
-        <v>0</v>
-      </c>
-      <c r="M406" s="5">
-        <v>0</v>
-      </c>
-      <c r="N406" s="5">
-        <v>0</v>
-      </c>
-      <c r="O406" s="5">
-        <v>0</v>
-      </c>
-      <c r="P406" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q406" s="5">
-        <v>0</v>
-      </c>
-      <c r="R406" s="5">
-        <v>0</v>
-      </c>
-      <c r="S406" s="5">
-        <v>0</v>
-      </c>
-      <c r="T406" s="5">
-        <v>0</v>
-      </c>
-      <c r="U406" s="5">
-        <v>0</v>
-      </c>
-      <c r="V406" s="5">
-        <v>0</v>
-      </c>
-      <c r="W406" s="5">
-        <v>0</v>
-      </c>
-      <c r="X406" s="5">
-        <v>0</v>
+      <c r="D406" s="7">
+        <v>3</v>
+      </c>
+      <c r="E406" s="7">
+        <v>3</v>
+      </c>
+      <c r="F406" s="7">
+        <v>3</v>
+      </c>
+      <c r="G406" s="7">
+        <v>3</v>
+      </c>
+      <c r="H406" s="7">
+        <v>3</v>
+      </c>
+      <c r="I406" s="7">
+        <v>3</v>
+      </c>
+      <c r="J406" s="7">
+        <v>3</v>
+      </c>
+      <c r="K406" s="7">
+        <v>3</v>
+      </c>
+      <c r="L406" s="7">
+        <v>3</v>
+      </c>
+      <c r="M406" s="7">
+        <v>3</v>
+      </c>
+      <c r="N406" s="7">
+        <v>3</v>
+      </c>
+      <c r="O406" s="7">
+        <v>3</v>
+      </c>
+      <c r="P406" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q406" s="7">
+        <v>3</v>
+      </c>
+      <c r="R406" s="7">
+        <v>3</v>
+      </c>
+      <c r="S406" s="7">
+        <v>3</v>
+      </c>
+      <c r="T406" s="7">
+        <v>3</v>
+      </c>
+      <c r="U406" s="7">
+        <v>3</v>
+      </c>
+      <c r="V406" s="7">
+        <v>3</v>
+      </c>
+      <c r="W406" s="7">
+        <v>3</v>
+      </c>
+      <c r="X406" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="4">
+        <v>500</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C407" s="5">
+        <v>0</v>
+      </c>
+      <c r="D407" s="5">
+        <v>0</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0</v>
+      </c>
+      <c r="F407" s="5">
+        <v>0</v>
+      </c>
+      <c r="G407" s="5">
+        <v>0</v>
+      </c>
+      <c r="H407" s="5">
+        <v>0</v>
+      </c>
+      <c r="I407" s="5">
+        <v>0</v>
+      </c>
+      <c r="J407" s="5">
+        <v>0</v>
+      </c>
+      <c r="K407" s="5">
+        <v>0</v>
+      </c>
+      <c r="L407" s="5">
+        <v>0</v>
+      </c>
+      <c r="M407" s="5">
+        <v>0</v>
+      </c>
+      <c r="N407" s="5">
+        <v>0</v>
+      </c>
+      <c r="O407" s="5">
+        <v>0</v>
+      </c>
+      <c r="P407" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q407" s="5">
+        <v>0</v>
+      </c>
+      <c r="R407" s="5">
+        <v>0</v>
+      </c>
+      <c r="S407" s="5">
+        <v>0</v>
+      </c>
+      <c r="T407" s="5">
+        <v>0</v>
+      </c>
+      <c r="U407" s="5">
+        <v>0</v>
+      </c>
+      <c r="V407" s="5">
+        <v>0</v>
+      </c>
+      <c r="W407" s="5">
+        <v>0</v>
+      </c>
+      <c r="X407" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A408" s="4">
+        <v>501</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C408" s="5">
+        <v>0</v>
+      </c>
+      <c r="D408" s="5">
+        <v>0</v>
+      </c>
+      <c r="E408" s="5">
+        <v>0</v>
+      </c>
+      <c r="F408" s="5">
+        <v>0</v>
+      </c>
+      <c r="G408" s="5">
+        <v>0</v>
+      </c>
+      <c r="H408" s="5">
+        <v>0</v>
+      </c>
+      <c r="I408" s="5">
+        <v>0</v>
+      </c>
+      <c r="J408" s="5">
+        <v>0</v>
+      </c>
+      <c r="K408" s="5">
+        <v>0</v>
+      </c>
+      <c r="L408" s="5">
+        <v>0</v>
+      </c>
+      <c r="M408" s="5">
+        <v>0</v>
+      </c>
+      <c r="N408" s="5">
+        <v>0</v>
+      </c>
+      <c r="O408" s="5">
+        <v>0</v>
+      </c>
+      <c r="P408" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q408" s="5">
+        <v>0</v>
+      </c>
+      <c r="R408" s="5">
+        <v>0</v>
+      </c>
+      <c r="S408" s="5">
+        <v>0</v>
+      </c>
+      <c r="T408" s="5">
+        <v>0</v>
+      </c>
+      <c r="U408" s="5">
+        <v>0</v>
+      </c>
+      <c r="V408" s="5">
+        <v>0</v>
+      </c>
+      <c r="W408" s="5">
+        <v>0</v>
+      </c>
+      <c r="X408" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A409" s="4">
+        <v>503</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C409" s="5">
+        <v>0</v>
+      </c>
+      <c r="D409" s="5">
+        <v>0</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0</v>
+      </c>
+      <c r="F409" s="5">
+        <v>0</v>
+      </c>
+      <c r="G409" s="5">
+        <v>0</v>
+      </c>
+      <c r="H409" s="5">
+        <v>0</v>
+      </c>
+      <c r="I409" s="5">
+        <v>0</v>
+      </c>
+      <c r="J409" s="5">
+        <v>0</v>
+      </c>
+      <c r="K409" s="5">
+        <v>0</v>
+      </c>
+      <c r="L409" s="5">
+        <v>0</v>
+      </c>
+      <c r="M409" s="5">
+        <v>0</v>
+      </c>
+      <c r="N409" s="5">
+        <v>0</v>
+      </c>
+      <c r="O409" s="5">
+        <v>0</v>
+      </c>
+      <c r="P409" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q409" s="5">
+        <v>0</v>
+      </c>
+      <c r="R409" s="5">
+        <v>0</v>
+      </c>
+      <c r="S409" s="5">
+        <v>0</v>
+      </c>
+      <c r="T409" s="5">
+        <v>0</v>
+      </c>
+      <c r="U409" s="5">
+        <v>0</v>
+      </c>
+      <c r="V409" s="5">
+        <v>0</v>
+      </c>
+      <c r="W409" s="5">
+        <v>0</v>
+      </c>
+      <c r="X409" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A410" s="4">
+        <v>504</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C410" s="5">
+        <v>0</v>
+      </c>
+      <c r="D410" s="5">
+        <v>0</v>
+      </c>
+      <c r="E410" s="5">
+        <v>0</v>
+      </c>
+      <c r="F410" s="5">
+        <v>0</v>
+      </c>
+      <c r="G410" s="5">
+        <v>0</v>
+      </c>
+      <c r="H410" s="5">
+        <v>0</v>
+      </c>
+      <c r="I410" s="5">
+        <v>0</v>
+      </c>
+      <c r="J410" s="5">
+        <v>0</v>
+      </c>
+      <c r="K410" s="5">
+        <v>0</v>
+      </c>
+      <c r="L410" s="5">
+        <v>0</v>
+      </c>
+      <c r="M410" s="5">
+        <v>0</v>
+      </c>
+      <c r="N410" s="5">
+        <v>0</v>
+      </c>
+      <c r="O410" s="5">
+        <v>0</v>
+      </c>
+      <c r="P410" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q410" s="5">
+        <v>0</v>
+      </c>
+      <c r="R410" s="5">
+        <v>0</v>
+      </c>
+      <c r="S410" s="5">
+        <v>0</v>
+      </c>
+      <c r="T410" s="5">
+        <v>0</v>
+      </c>
+      <c r="U410" s="5">
+        <v>0</v>
+      </c>
+      <c r="V410" s="5">
+        <v>0</v>
+      </c>
+      <c r="W410" s="5">
+        <v>0</v>
+      </c>
+      <c r="X410" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A411" s="4">
+        <v>505</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C411" s="5">
+        <v>0</v>
+      </c>
+      <c r="D411" s="5">
+        <v>0</v>
+      </c>
+      <c r="E411" s="5">
+        <v>0</v>
+      </c>
+      <c r="F411" s="5">
+        <v>0</v>
+      </c>
+      <c r="G411" s="5">
+        <v>0</v>
+      </c>
+      <c r="H411" s="5">
+        <v>0</v>
+      </c>
+      <c r="I411" s="5">
+        <v>0</v>
+      </c>
+      <c r="J411" s="5">
+        <v>0</v>
+      </c>
+      <c r="K411" s="5">
+        <v>0</v>
+      </c>
+      <c r="L411" s="5">
+        <v>0</v>
+      </c>
+      <c r="M411" s="5">
+        <v>0</v>
+      </c>
+      <c r="N411" s="5">
+        <v>0</v>
+      </c>
+      <c r="O411" s="5">
+        <v>0</v>
+      </c>
+      <c r="P411" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q411" s="5">
+        <v>0</v>
+      </c>
+      <c r="R411" s="5">
+        <v>0</v>
+      </c>
+      <c r="S411" s="5">
+        <v>0</v>
+      </c>
+      <c r="T411" s="5">
+        <v>0</v>
+      </c>
+      <c r="U411" s="5">
+        <v>0</v>
+      </c>
+      <c r="V411" s="5">
+        <v>0</v>
+      </c>
+      <c r="W411" s="5">
+        <v>0</v>
+      </c>
+      <c r="X411" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A412" s="4">
         <v>506</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B412" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C407" s="5">
-        <v>0</v>
-      </c>
-      <c r="D407" s="5">
-        <v>0</v>
-      </c>
-      <c r="E407" s="5">
-        <v>0</v>
-      </c>
-      <c r="F407" s="5">
-        <v>0</v>
-      </c>
-      <c r="G407" s="5">
-        <v>0</v>
-      </c>
-      <c r="H407" s="5">
-        <v>0</v>
-      </c>
-      <c r="I407" s="5">
-        <v>0</v>
-      </c>
-      <c r="J407" s="5">
-        <v>0</v>
-      </c>
-      <c r="K407" s="5">
-        <v>0</v>
-      </c>
-      <c r="L407" s="5">
-        <v>0</v>
-      </c>
-      <c r="M407" s="5">
-        <v>0</v>
-      </c>
-      <c r="N407" s="5">
-        <v>0</v>
-      </c>
-      <c r="O407" s="5">
-        <v>0</v>
-      </c>
-      <c r="P407" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q407" s="5">
-        <v>0</v>
-      </c>
-      <c r="R407" s="5">
-        <v>0</v>
-      </c>
-      <c r="S407" s="5">
-        <v>0</v>
-      </c>
-      <c r="T407" s="5">
-        <v>0</v>
-      </c>
-      <c r="U407" s="5">
-        <v>0</v>
-      </c>
-      <c r="V407" s="5">
-        <v>0</v>
-      </c>
-      <c r="W407" s="5">
-        <v>0</v>
-      </c>
-      <c r="X407" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
-      <c r="F408" s="5"/>
-      <c r="G408" s="5"/>
-      <c r="H408" s="5"/>
-      <c r="I408" s="5"/>
-      <c r="J408" s="5"/>
-      <c r="K408" s="5"/>
-      <c r="L408" s="5"/>
-      <c r="M408" s="5"/>
-      <c r="N408" s="5"/>
-      <c r="O408" s="5"/>
-      <c r="P408" s="5"/>
-      <c r="Q408" s="5"/>
-      <c r="R408" s="5"/>
-      <c r="S408" s="5"/>
-      <c r="T408" s="5"/>
-      <c r="U408" s="5"/>
-      <c r="V408" s="5"/>
-      <c r="W408" s="5"/>
-      <c r="X408" s="5"/>
-    </row>
-    <row r="409" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
-      <c r="H409" s="5"/>
-      <c r="I409" s="5"/>
-      <c r="J409" s="5"/>
-      <c r="K409" s="5"/>
-      <c r="L409" s="5"/>
-      <c r="M409" s="5"/>
-      <c r="N409" s="5"/>
-      <c r="O409" s="5"/>
-      <c r="P409" s="5"/>
-      <c r="Q409" s="5"/>
-      <c r="R409" s="5"/>
-      <c r="S409" s="5"/>
-      <c r="T409" s="5"/>
-      <c r="U409" s="5"/>
-      <c r="V409" s="5"/>
-      <c r="W409" s="5"/>
-      <c r="X409" s="5"/>
-    </row>
-    <row r="410" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
-      <c r="H410" s="5"/>
-      <c r="I410" s="5"/>
-      <c r="J410" s="5"/>
-      <c r="K410" s="5"/>
-      <c r="L410" s="5"/>
-      <c r="M410" s="5"/>
-      <c r="N410" s="5"/>
-      <c r="O410" s="5"/>
-      <c r="P410" s="5"/>
-      <c r="Q410" s="5"/>
-      <c r="R410" s="5"/>
-      <c r="S410" s="5"/>
-      <c r="T410" s="5"/>
-      <c r="U410" s="5"/>
-      <c r="V410" s="5"/>
-      <c r="W410" s="5"/>
-      <c r="X410" s="5"/>
-    </row>
-    <row r="411" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
-      <c r="I411" s="5"/>
-      <c r="J411" s="5"/>
-      <c r="K411" s="5"/>
-      <c r="L411" s="5"/>
-      <c r="M411" s="5"/>
-      <c r="N411" s="5"/>
-      <c r="O411" s="5"/>
-      <c r="P411" s="5"/>
-      <c r="Q411" s="5"/>
-      <c r="R411" s="5"/>
-      <c r="S411" s="5"/>
-      <c r="T411" s="5"/>
-      <c r="U411" s="5"/>
-      <c r="V411" s="5"/>
-      <c r="W411" s="5"/>
-      <c r="X411" s="5"/>
-    </row>
-    <row r="412" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="5"/>
-      <c r="N412" s="5"/>
-      <c r="O412" s="5"/>
-      <c r="P412" s="5"/>
-      <c r="Q412" s="5"/>
-      <c r="R412" s="5"/>
-      <c r="S412" s="5"/>
-      <c r="T412" s="5"/>
-      <c r="U412" s="5"/>
-      <c r="V412" s="5"/>
-      <c r="W412" s="5"/>
-      <c r="X412" s="5"/>
+      <c r="C412" s="5">
+        <v>0</v>
+      </c>
+      <c r="D412" s="5">
+        <v>0</v>
+      </c>
+      <c r="E412" s="5">
+        <v>0</v>
+      </c>
+      <c r="F412" s="5">
+        <v>0</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
+      <c r="H412" s="5">
+        <v>0</v>
+      </c>
+      <c r="I412" s="5">
+        <v>0</v>
+      </c>
+      <c r="J412" s="5">
+        <v>0</v>
+      </c>
+      <c r="K412" s="5">
+        <v>0</v>
+      </c>
+      <c r="L412" s="5">
+        <v>0</v>
+      </c>
+      <c r="M412" s="5">
+        <v>0</v>
+      </c>
+      <c r="N412" s="5">
+        <v>0</v>
+      </c>
+      <c r="O412" s="5">
+        <v>0</v>
+      </c>
+      <c r="P412" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q412" s="5">
+        <v>0</v>
+      </c>
+      <c r="R412" s="5">
+        <v>0</v>
+      </c>
+      <c r="S412" s="5">
+        <v>0</v>
+      </c>
+      <c r="T412" s="5">
+        <v>0</v>
+      </c>
+      <c r="U412" s="5">
+        <v>0</v>
+      </c>
+      <c r="V412" s="5">
+        <v>0</v>
+      </c>
+      <c r="W412" s="5">
+        <v>0</v>
+      </c>
+      <c r="X412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="C413" s="5"/>
@@ -46097,8 +46362,128 @@
       <c r="W1000" s="5"/>
       <c r="X1000" s="5"/>
     </row>
+    <row r="1001" spans="3:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
+      <c r="H1001" s="5"/>
+      <c r="I1001" s="5"/>
+      <c r="J1001" s="5"/>
+      <c r="K1001" s="5"/>
+      <c r="L1001" s="5"/>
+      <c r="M1001" s="5"/>
+      <c r="N1001" s="5"/>
+      <c r="O1001" s="5"/>
+      <c r="P1001" s="5"/>
+      <c r="Q1001" s="5"/>
+      <c r="R1001" s="5"/>
+      <c r="S1001" s="5"/>
+      <c r="T1001" s="5"/>
+      <c r="U1001" s="5"/>
+      <c r="V1001" s="5"/>
+      <c r="W1001" s="5"/>
+      <c r="X1001" s="5"/>
+    </row>
+    <row r="1002" spans="3:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+      <c r="F1002" s="5"/>
+      <c r="G1002" s="5"/>
+      <c r="H1002" s="5"/>
+      <c r="I1002" s="5"/>
+      <c r="J1002" s="5"/>
+      <c r="K1002" s="5"/>
+      <c r="L1002" s="5"/>
+      <c r="M1002" s="5"/>
+      <c r="N1002" s="5"/>
+      <c r="O1002" s="5"/>
+      <c r="P1002" s="5"/>
+      <c r="Q1002" s="5"/>
+      <c r="R1002" s="5"/>
+      <c r="S1002" s="5"/>
+      <c r="T1002" s="5"/>
+      <c r="U1002" s="5"/>
+      <c r="V1002" s="5"/>
+      <c r="W1002" s="5"/>
+      <c r="X1002" s="5"/>
+    </row>
+    <row r="1003" spans="3:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+      <c r="G1003" s="5"/>
+      <c r="H1003" s="5"/>
+      <c r="I1003" s="5"/>
+      <c r="J1003" s="5"/>
+      <c r="K1003" s="5"/>
+      <c r="L1003" s="5"/>
+      <c r="M1003" s="5"/>
+      <c r="N1003" s="5"/>
+      <c r="O1003" s="5"/>
+      <c r="P1003" s="5"/>
+      <c r="Q1003" s="5"/>
+      <c r="R1003" s="5"/>
+      <c r="S1003" s="5"/>
+      <c r="T1003" s="5"/>
+      <c r="U1003" s="5"/>
+      <c r="V1003" s="5"/>
+      <c r="W1003" s="5"/>
+      <c r="X1003" s="5"/>
+    </row>
+    <row r="1004" spans="3:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="5"/>
+      <c r="G1004" s="5"/>
+      <c r="H1004" s="5"/>
+      <c r="I1004" s="5"/>
+      <c r="J1004" s="5"/>
+      <c r="K1004" s="5"/>
+      <c r="L1004" s="5"/>
+      <c r="M1004" s="5"/>
+      <c r="N1004" s="5"/>
+      <c r="O1004" s="5"/>
+      <c r="P1004" s="5"/>
+      <c r="Q1004" s="5"/>
+      <c r="R1004" s="5"/>
+      <c r="S1004" s="5"/>
+      <c r="T1004" s="5"/>
+      <c r="U1004" s="5"/>
+      <c r="V1004" s="5"/>
+      <c r="W1004" s="5"/>
+      <c r="X1004" s="5"/>
+    </row>
+    <row r="1005" spans="3:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="5"/>
+      <c r="G1005" s="5"/>
+      <c r="H1005" s="5"/>
+      <c r="I1005" s="5"/>
+      <c r="J1005" s="5"/>
+      <c r="K1005" s="5"/>
+      <c r="L1005" s="5"/>
+      <c r="M1005" s="5"/>
+      <c r="N1005" s="5"/>
+      <c r="O1005" s="5"/>
+      <c r="P1005" s="5"/>
+      <c r="Q1005" s="5"/>
+      <c r="R1005" s="5"/>
+      <c r="S1005" s="5"/>
+      <c r="T1005" s="5"/>
+      <c r="U1005" s="5"/>
+      <c r="V1005" s="5"/>
+      <c r="W1005" s="5"/>
+      <c r="X1005" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:X233 C343:C407 D343:X370 C2:C295 D235:X295 C296:X342">
+  <conditionalFormatting sqref="C348:C412 D348:X375 D235:X295 C296:X347 C2:X167 C168:C295 D168:X233">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -46109,7 +46494,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D371:X407">
+  <conditionalFormatting sqref="D376:X412">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
